--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value103.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value103.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.206882898507752</v>
+        <v>2.708015918731689</v>
       </c>
       <c r="B1">
-        <v>2.443421446860911</v>
+        <v>2.616949796676636</v>
       </c>
       <c r="C1">
-        <v>5.422549787720202</v>
+        <v>2.263574600219727</v>
       </c>
       <c r="D1">
-        <v>1.54417763708153</v>
+        <v>1.49393904209137</v>
       </c>
       <c r="E1">
-        <v>0.7476622854804252</v>
+        <v>0.935169517993927</v>
       </c>
     </row>
   </sheetData>
